--- a/src/RadniNalog/wwwroot/demo1.xlsx
+++ b/src/RadniNalog/wwwroot/demo1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -44,67 +44,52 @@
     <t xml:space="preserve">Mjesto Rada</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-11-28T11:04:41.819Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ispitivanje</t>
+    <t xml:space="preserve">2018-11-27T07:48:29.555Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivica Radačić</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jure Radan</t>
   </si>
   <si>
     <t xml:space="preserve">Ivan Maleš</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivica Radačić</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jure Radan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dacia Dokker ST-1435 F</t>
   </si>
   <si>
-    <t xml:space="preserve">Redovno odrzavanje MR 10(20) kV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zadar1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-11-29T07:42:24.791Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiat Panda ST-2164 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pregledi Sustava MTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-11-27T07:48:29.555Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">Redovno odrzavanje Sustava Telekomunikacija</t>
   </si>
   <si>
     <t xml:space="preserve">TS Dobri</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-11-25T08:39:22.707Z</t>
+    <t xml:space="preserve">2018-03-15T08:30:51.313Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtrtrtrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dacia Sandero ST-2653 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redovno odrzavanje Sustava Daljinskog Vodenja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-14T07:32:16.966Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zamjenja automata</t>
   </si>
   <si>
     <t xml:space="preserve">Pregledi MR NN</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-07-10T09:16:31.752Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fhfhfhfhfh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dacia Sandero ST-2653 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redovno odrzavanje MR 35 kV</t>
+    <t xml:space="preserve">TS SINJ2</t>
   </si>
 </sst>
 </file>
@@ -188,7 +173,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -218,7 +203,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -228,13 +213,13 @@
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -248,92 +233,32 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
